--- a/PhasomeIt_data/phasomeit_out.xlsx
+++ b/PhasomeIt_data/phasomeit_out.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u5501917/Documents/PhD/PhD/PhasomeIt_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C6DEAE-98E9-3649-89C6-9934BD26F738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80699266-6A94-E34C-B525-BD139A510F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15380" yWindow="760" windowWidth="14860" windowHeight="18880" activeTab="3" xr2:uid="{480DD372-3942-D34A-8BED-516D6EDEA6F5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{480DD372-3942-D34A-8BED-516D6EDEA6F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Sheet 1" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5732" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5771" uniqueCount="1012">
   <si>
     <t>Name</t>
   </si>
@@ -2577,9 +2578,6 @@
     <t>accoridng to the yellow one, only one annotated ^</t>
   </si>
   <si>
-    <t>LC is in the wrong column - I didn’t put it there, need to check out why</t>
-  </si>
-  <si>
     <t>carriage average:</t>
   </si>
   <si>
@@ -2844,9 +2842,6 @@
     <t>ACGCGC</t>
   </si>
   <si>
-    <t>CAGC</t>
-  </si>
-  <si>
     <t>CCCAA</t>
   </si>
   <si>
@@ -3054,20 +3049,44 @@
     <t>Phasomeit predicts both tracts at this locus to be OFF, and as they are a multiple of 3, any change in length should not change state. Checking ORFinder shows all isolates have approximately the same reading frame length and position, so I have coded all hits red to match PhasomeIts prediction.</t>
   </si>
   <si>
-    <t>Contig breaks in PilC2 make it impossible to resolve the full gene sequence or the repeat tract</t>
-  </si>
-  <si>
     <t>pilC1</t>
   </si>
   <si>
-    <t>Need to check every individal sequence here</t>
+    <t>Contig breaks in PilC1 make it impossible to resolve the full gene sequence or the repeat tract</t>
+  </si>
+  <si>
+    <t>opaA</t>
+  </si>
+  <si>
+    <t>opaB</t>
+  </si>
+  <si>
+    <t>opaD</t>
+  </si>
+  <si>
+    <t>opaJ</t>
+  </si>
+  <si>
+    <t>CTCTT</t>
+  </si>
+  <si>
+    <t>Tract lengths for some isolates come from data in Green et al., 2020.</t>
+  </si>
+  <si>
+    <t>Tract lengths for some isolates come from data in Green et al., 2020. Contig breaks within tracts in three isolates for many opa genes</t>
+  </si>
+  <si>
+    <t>modA</t>
+  </si>
+  <si>
+    <t>Contig breaks in PilC2 make it impossible to resolve the full gene sequence or the repeat tract. Switch in expression between pilc1 and pilc2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3093,6 +3112,19 @@
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3174,7 +3206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3187,6 +3219,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3621,13 +3657,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3742,7 +3778,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B13">
         <f>ROUND(AVERAGE(B4:B11),0)</f>
@@ -12317,8 +12353,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30A245B-95BF-C943-9F83-1E9E02780E5F}">
   <dimension ref="A1:AW95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="X79" sqref="X79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12385,105 +12423,105 @@
         <v>28</v>
       </c>
       <c r="R1" t="s">
+        <v>848</v>
+      </c>
+      <c r="S1" t="s">
         <v>849</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>850</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>851</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>852</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>853</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>854</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>855</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>856</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>857</v>
       </c>
-      <c r="AA1" t="s">
-        <v>858</v>
-      </c>
       <c r="AB1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AC1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AD1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AE1" t="s">
+        <v>965</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>966</v>
+      </c>
+      <c r="AG1" t="s">
         <v>967</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>968</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>969</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>970</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>971</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>972</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>973</v>
       </c>
-      <c r="AL1" t="s">
-        <v>974</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>975</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
+        <v>976</v>
+      </c>
+      <c r="AP1" t="s">
         <v>977</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>978</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>979</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>980</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>981</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>982</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>983</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>984</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>985</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -12534,67 +12572,70 @@
         <v>8</v>
       </c>
       <c r="R2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S2" s="6">
         <v>10</v>
       </c>
       <c r="T2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA2" t="s">
-        <v>864</v>
+        <v>863</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
       </c>
       <c r="AC2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AE2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AF2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.2">
@@ -12650,7 +12691,7 @@
         <v>43</v>
       </c>
       <c r="R3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="S3" s="2">
         <v>3</v>
@@ -12659,58 +12700,61 @@
         <v>3</v>
       </c>
       <c r="U3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA3" t="s">
-        <v>864</v>
+        <v>863</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
       </c>
       <c r="AC3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AE3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AF3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AG3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.2">
@@ -12749,64 +12793,67 @@
         <v>44</v>
       </c>
       <c r="R4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="S4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA4" t="s">
-        <v>864</v>
+        <v>863</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AE4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.2">
@@ -12845,64 +12892,67 @@
         <v>45</v>
       </c>
       <c r="R5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="S5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA5" t="s">
-        <v>864</v>
+        <v>863</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
       </c>
       <c r="AD5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AE5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.2">
@@ -12938,61 +12988,64 @@
         <v>46</v>
       </c>
       <c r="R6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="S6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA6" t="s">
-        <v>864</v>
+        <v>863</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
       </c>
       <c r="AE6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.2">
@@ -13007,61 +13060,64 @@
         <v>39</v>
       </c>
       <c r="R7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="S7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA7" t="s">
-        <v>864</v>
+        <v>863</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
       </c>
       <c r="AE7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.2">
@@ -13076,61 +13132,64 @@
         <v>40</v>
       </c>
       <c r="R8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="S8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA8" t="s">
-        <v>864</v>
+        <v>863</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
       </c>
       <c r="AE8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.2">
@@ -13142,61 +13201,64 @@
         <v>41</v>
       </c>
       <c r="R9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="S9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA9" t="s">
-        <v>864</v>
+        <v>863</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
       </c>
       <c r="AE9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.2">
@@ -13210,7 +13272,7 @@
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -13252,7 +13314,7 @@
         <v>83</v>
       </c>
       <c r="R10" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="S10" s="3">
         <v>10</v>
@@ -13285,34 +13347,34 @@
         <v>0</v>
       </c>
       <c r="AC10" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AE10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.2">
@@ -13362,22 +13424,22 @@
         <v>91</v>
       </c>
       <c r="R11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="S11" s="3">
         <v>14</v>
       </c>
       <c r="T11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V11" s="3">
         <v>20</v>
       </c>
       <c r="W11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X11" s="3">
         <v>22</v>
@@ -13392,37 +13454,37 @@
         <v>20</v>
       </c>
       <c r="AB11" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AC11" t="s">
+        <v>870</v>
+      </c>
+      <c r="AE11" t="s">
         <v>871</v>
       </c>
-      <c r="AE11" t="s">
-        <v>872</v>
-      </c>
       <c r="AF11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.2">
@@ -13434,66 +13496,69 @@
         <v>87</v>
       </c>
       <c r="R12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="S12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA12" t="s">
-        <v>864</v>
+        <v>863</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
       </c>
       <c r="AE12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM12" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -13529,7 +13594,7 @@
         <v>100</v>
       </c>
       <c r="R13" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="S13" s="3">
         <v>14</v>
@@ -13544,7 +13609,7 @@
         <v>8</v>
       </c>
       <c r="W13" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X13" s="3">
         <v>8</v>
@@ -13562,39 +13627,39 @@
         <v>0</v>
       </c>
       <c r="AC13" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="AE13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI13" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM13" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -13645,67 +13710,67 @@
         <v>107</v>
       </c>
       <c r="R14" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S14" s="6">
         <v>11</v>
       </c>
       <c r="T14" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U14" t="s">
-        <v>864</v>
-      </c>
-      <c r="V14" t="s">
-        <v>864</v>
+        <v>863</v>
+      </c>
+      <c r="V14" s="12">
+        <v>8</v>
       </c>
       <c r="W14" t="s">
-        <v>864</v>
-      </c>
-      <c r="X14" t="s">
-        <v>864</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>864</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>864</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>864</v>
+        <v>863</v>
+      </c>
+      <c r="X14" s="13">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>9</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>9</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>8</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" t="s">
-        <v>1003</v>
+        <v>1011</v>
       </c>
       <c r="AE14" t="s">
+        <v>858</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>863</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>863</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>858</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>863</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>859</v>
       </c>
-      <c r="AF14" t="s">
-        <v>864</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>864</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>864</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>864</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>864</v>
-      </c>
       <c r="AK14" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="AL14" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="AM14" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.2">
@@ -13716,7 +13781,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>103</v>
@@ -13728,69 +13793,72 @@
         <v>115</v>
       </c>
       <c r="R15" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S15" s="6">
         <v>14</v>
       </c>
       <c r="T15" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U15" t="s">
-        <v>864</v>
-      </c>
-      <c r="V15" t="s">
-        <v>864</v>
+        <v>863</v>
+      </c>
+      <c r="V15" s="13">
+        <v>12</v>
       </c>
       <c r="W15" t="s">
-        <v>864</v>
-      </c>
-      <c r="X15" t="s">
-        <v>864</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>864</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>864</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>864</v>
+        <v>863</v>
+      </c>
+      <c r="X15" s="12">
+        <v>11</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>11</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>12</v>
+      </c>
+      <c r="AB15" s="15">
+        <v>1</v>
       </c>
       <c r="AC15" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AE15" t="s">
+        <v>858</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>863</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>863</v>
+      </c>
+      <c r="AH15" t="s">
         <v>859</v>
       </c>
-      <c r="AF15" t="s">
-        <v>864</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>864</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>864</v>
-      </c>
       <c r="AI15" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ15" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="AK15" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="AL15" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="AM15" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -13841,7 +13909,7 @@
         <v>120</v>
       </c>
       <c r="R16" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="S16" s="3">
         <v>11</v>
@@ -13856,7 +13924,7 @@
         <v>8</v>
       </c>
       <c r="W16" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X16" s="3">
         <v>8</v>
@@ -13870,43 +13938,43 @@
       <c r="AA16" s="3">
         <v>8</v>
       </c>
-      <c r="AB16" t="s">
-        <v>908</v>
+      <c r="AB16">
+        <v>0</v>
       </c>
       <c r="AC16" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AE16" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF16" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG16" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH16" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI16" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ16" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK16" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL16" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM16" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -13957,7 +14025,7 @@
         <v>132</v>
       </c>
       <c r="R17" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S17" s="2">
         <v>11</v>
@@ -13968,53 +14036,56 @@
       <c r="U17" s="2">
         <v>8</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V17" s="13">
         <v>8</v>
       </c>
       <c r="W17" s="2">
         <v>8</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X17" s="13">
         <v>8</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Y17" s="13">
         <v>8</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="Z17" s="13">
         <v>8</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AA17" s="13">
         <v>8</v>
       </c>
+      <c r="AB17" s="15">
+        <v>0</v>
+      </c>
       <c r="AC17" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AE17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AF17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AG17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AH17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AI17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AJ17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AK17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AL17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AM17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.2">
@@ -14070,7 +14141,7 @@
         <v>151</v>
       </c>
       <c r="R18" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="S18" s="6">
         <v>3</v>
@@ -14094,40 +14165,43 @@
         <v>4</v>
       </c>
       <c r="Z18" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA18" t="s">
-        <v>864</v>
+        <v>863</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
       </c>
       <c r="AC18" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AF18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AG18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AH18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AI18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AJ18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AK18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AL18" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM18" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.2">
@@ -14138,7 +14212,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D19" t="s">
         <v>141</v>
@@ -14183,7 +14257,7 @@
         <v>151</v>
       </c>
       <c r="R19" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="S19" s="6">
         <v>4</v>
@@ -14207,40 +14281,43 @@
         <v>11</v>
       </c>
       <c r="Z19" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA19" t="s">
-        <v>864</v>
+        <v>863</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
       </c>
       <c r="AC19" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="AE19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AF19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AG19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AH19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AI19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AJ19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AK19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AL19" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM19" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.2">
@@ -14296,7 +14373,7 @@
         <v>163</v>
       </c>
       <c r="R20" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="S20" s="6">
         <v>9</v>
@@ -14329,39 +14406,39 @@
         <v>1</v>
       </c>
       <c r="AC20" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="AE20" t="s">
+        <v>858</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>858</v>
+      </c>
+      <c r="AG20" t="s">
         <v>859</v>
       </c>
-      <c r="AF20" t="s">
-        <v>859</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>860</v>
-      </c>
       <c r="AH20" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AI20" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AJ20" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AK20" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AL20" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AM20" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B21">
         <v>12</v>
@@ -14412,67 +14489,67 @@
         <v>166</v>
       </c>
       <c r="R21" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="S21" s="2">
         <v>11</v>
       </c>
       <c r="T21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AB21">
         <v>0</v>
       </c>
       <c r="AC21" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="AE21" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AF21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM21" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.2">
@@ -14501,7 +14578,7 @@
         <v>174</v>
       </c>
       <c r="R22" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="S22" s="6">
         <v>6</v>
@@ -14534,34 +14611,34 @@
         <v>0</v>
       </c>
       <c r="AC22" s="7" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="AE22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AF22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AG22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AH22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AI22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AJ22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AK22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AL22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AM22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.2">
@@ -14617,7 +14694,7 @@
         <v>179</v>
       </c>
       <c r="R23" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S23" s="6">
         <v>9</v>
@@ -14650,78 +14727,63 @@
         <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="AE23" t="s">
+        <v>858</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>858</v>
+      </c>
+      <c r="AG23" t="s">
         <v>859</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>859</v>
       </c>
-      <c r="AG23" t="s">
-        <v>860</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>860</v>
-      </c>
       <c r="AI23" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AJ23" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AK23" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AL23" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AM23" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>833</v>
+      <c r="A24" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="B24">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E24">
-        <v>13</v>
-      </c>
-      <c r="F24">
-        <v>15</v>
-      </c>
-      <c r="G24">
-        <v>22</v>
+        <v>1003</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="J24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24" t="s">
         <v>200</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>201</v>
+      <c r="N24" t="s">
+        <v>208</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>202</v>
@@ -14730,114 +14792,336 @@
         <v>203</v>
       </c>
       <c r="R24" t="s">
-        <v>844</v>
-      </c>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="7"/>
+        <v>1007</v>
+      </c>
+      <c r="S24" s="6">
+        <v>10</v>
+      </c>
+      <c r="T24" t="s">
+        <v>863</v>
+      </c>
+      <c r="U24" t="s">
+        <v>863</v>
+      </c>
+      <c r="V24" s="12">
+        <v>19</v>
+      </c>
+      <c r="W24" t="s">
+        <v>863</v>
+      </c>
+      <c r="X24" s="12">
+        <v>16</v>
+      </c>
+      <c r="Y24" s="13">
+        <v>21</v>
+      </c>
+      <c r="Z24" s="13">
+        <v>18</v>
+      </c>
+      <c r="AA24" s="12">
+        <v>20</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>858</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>863</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>863</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>858</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>863</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>858</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>859</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>859</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>834</v>
+      <c r="A25" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="B25">
         <v>15</v>
       </c>
+      <c r="C25" t="s">
+        <v>1004</v>
+      </c>
       <c r="H25" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="K25" t="s">
-        <v>206</v>
       </c>
       <c r="M25" t="s">
         <v>204</v>
       </c>
-      <c r="N25" t="s">
-        <v>208</v>
-      </c>
       <c r="R25" t="s">
-        <v>1005</v>
-      </c>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
+        <v>1007</v>
+      </c>
+      <c r="S25" s="6">
+        <v>11</v>
+      </c>
+      <c r="T25" t="s">
+        <v>863</v>
+      </c>
+      <c r="U25" t="s">
+        <v>863</v>
+      </c>
+      <c r="V25" s="13">
+        <v>9</v>
+      </c>
+      <c r="W25" s="6">
+        <v>7</v>
+      </c>
+      <c r="X25" s="13">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z25" s="12">
+        <v>8</v>
+      </c>
+      <c r="AA25" s="12">
+        <v>8</v>
+      </c>
+      <c r="AB25" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>858</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>863</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>863</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>859</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>858</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>859</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>858</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>858</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>835</v>
+      <c r="A26" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="B26">
         <v>15</v>
       </c>
+      <c r="C26" t="s">
+        <v>1005</v>
+      </c>
       <c r="H26" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="J26" t="s">
-        <v>209</v>
+      <c r="J26" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="K26" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="M26" t="s">
         <v>205</v>
       </c>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7"/>
-      <c r="AK26" s="7"/>
-      <c r="AL26" s="7"/>
-      <c r="AM26" s="7"/>
+      <c r="N26" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="R26" t="s">
+        <v>1007</v>
+      </c>
+      <c r="S26" s="6">
+        <v>13</v>
+      </c>
+      <c r="T26" s="2">
+        <v>6</v>
+      </c>
+      <c r="U26" t="s">
+        <v>863</v>
+      </c>
+      <c r="V26" s="12">
+        <v>8</v>
+      </c>
+      <c r="W26" t="s">
+        <v>863</v>
+      </c>
+      <c r="X26" s="12">
+        <v>8</v>
+      </c>
+      <c r="Y26" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z26" s="12">
+        <v>8</v>
+      </c>
+      <c r="AA26" s="12">
+        <v>8</v>
+      </c>
+      <c r="AB26" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>858</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>859</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>863</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>858</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>863</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>858</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>858</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>858</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>836</v>
+      <c r="A27" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="B27">
         <v>15</v>
       </c>
+      <c r="C27" t="s">
+        <v>1006</v>
+      </c>
       <c r="H27" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="7"/>
-      <c r="AL27" s="7"/>
-      <c r="AM27" s="7"/>
+      <c r="J27" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="R27" t="s">
+        <v>1007</v>
+      </c>
+      <c r="S27" s="6">
+        <v>16</v>
+      </c>
+      <c r="T27" s="6">
+        <v>8</v>
+      </c>
+      <c r="U27" s="6">
+        <v>7</v>
+      </c>
+      <c r="V27" s="12">
+        <v>8</v>
+      </c>
+      <c r="W27" t="s">
+        <v>863</v>
+      </c>
+      <c r="X27" s="12">
+        <v>8</v>
+      </c>
+      <c r="Y27" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z27" s="12">
+        <v>8</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>8</v>
+      </c>
+      <c r="AB27" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>858</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>858</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>858</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>858</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>863</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>858</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>858</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>858</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -14888,7 +15172,7 @@
         <v>212</v>
       </c>
       <c r="R28" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S28" s="3">
         <v>9</v>
@@ -14921,34 +15205,34 @@
         <v>0</v>
       </c>
       <c r="AC28" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AE28" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF28" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG28" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH28" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI28" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ28" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK28" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL28" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM28" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.2">
@@ -15004,72 +15288,72 @@
         <v>231</v>
       </c>
       <c r="R29" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="S29" s="6">
         <v>34</v>
       </c>
-      <c r="T29" s="2">
+      <c r="T29" s="7">
         <v>12</v>
       </c>
       <c r="U29" s="2">
         <v>10</v>
       </c>
-      <c r="V29" s="6">
+      <c r="V29" s="12">
         <v>12</v>
       </c>
-      <c r="W29" s="6">
+      <c r="W29" s="7">
         <v>13</v>
       </c>
-      <c r="X29" s="6">
-        <v>11</v>
-      </c>
-      <c r="Y29" s="6">
-        <v>14</v>
-      </c>
-      <c r="Z29" s="6">
-        <v>14</v>
-      </c>
-      <c r="AA29" s="6">
-        <v>14</v>
-      </c>
-      <c r="AB29">
+      <c r="X29" s="12">
+        <v>12</v>
+      </c>
+      <c r="Y29" s="12">
+        <v>12</v>
+      </c>
+      <c r="Z29" s="12">
+        <v>12</v>
+      </c>
+      <c r="AA29" s="12">
+        <v>12</v>
+      </c>
+      <c r="AB29" s="7">
         <v>1</v>
       </c>
       <c r="AC29" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="AE29" t="s">
+        <v>858</v>
+      </c>
+      <c r="AF29" t="s">
         <v>859</v>
       </c>
-      <c r="AF29" t="s">
-        <v>860</v>
-      </c>
       <c r="AG29" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AH29" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AI29" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AJ29" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AK29" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AL29" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AM29" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B30">
         <v>18</v>
@@ -15102,7 +15386,7 @@
         <v>236</v>
       </c>
       <c r="R30" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="S30" s="3">
         <v>4</v>
@@ -15117,7 +15401,7 @@
         <v>14</v>
       </c>
       <c r="W30" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X30" s="3">
         <v>13</v>
@@ -15132,42 +15416,42 @@
         <v>15</v>
       </c>
       <c r="AB30" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AC30" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="AE30" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF30" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG30" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH30" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI30" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ30" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK30" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL30" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM30" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B31">
         <v>19</v>
@@ -15218,67 +15502,67 @@
         <v>242</v>
       </c>
       <c r="R31" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="S31" s="6">
         <v>5</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U31" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V31" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W31" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X31" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y31" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z31" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AB31">
         <v>0</v>
       </c>
       <c r="AC31" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="AE31" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AF31" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG31" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH31" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI31" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ31" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK31" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL31" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM31" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.2">
@@ -15325,19 +15609,19 @@
         <v>256</v>
       </c>
       <c r="R32" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="S32" s="3">
         <v>11</v>
       </c>
       <c r="T32" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U32" s="3">
         <v>10</v>
       </c>
       <c r="V32" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W32" s="3">
         <v>8</v>
@@ -15354,35 +15638,38 @@
       <c r="AA32" s="3">
         <v>10</v>
       </c>
+      <c r="AB32" t="s">
+        <v>907</v>
+      </c>
       <c r="AC32" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="AE32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF32" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH32" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.2">
@@ -15402,67 +15689,67 @@
         <v>252</v>
       </c>
       <c r="R33" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="S33" s="3">
         <v>9</v>
       </c>
       <c r="T33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AB33">
         <v>0</v>
       </c>
       <c r="AC33" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="AE33" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.2">
@@ -15512,7 +15799,7 @@
         <v>264</v>
       </c>
       <c r="R34" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="S34" s="3">
         <v>12</v>
@@ -15542,48 +15829,48 @@
         <v>24</v>
       </c>
       <c r="AB34" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AC34" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="AE34" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF34" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG34" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH34" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI34" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ34" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK34" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL34" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM34" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B35">
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D35" t="s">
         <v>96</v>
@@ -15601,67 +15888,67 @@
         <v>269</v>
       </c>
       <c r="R35" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="S35" s="6">
         <v>16</v>
       </c>
       <c r="T35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AB35">
         <v>0</v>
       </c>
       <c r="AC35" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AE35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.2">
@@ -15672,7 +15959,7 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>270</v>
+        <v>1010</v>
       </c>
       <c r="D36" t="s">
         <v>271</v>
@@ -15716,8 +16003,8 @@
       <c r="Q36" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="R36" t="s">
-        <v>933</v>
+      <c r="R36" s="7" t="s">
+        <v>904</v>
       </c>
       <c r="S36" s="6">
         <v>20</v>
@@ -15728,56 +16015,56 @@
       <c r="U36" s="2">
         <v>19</v>
       </c>
-      <c r="V36" s="6">
+      <c r="V36" s="12">
+        <v>9</v>
+      </c>
+      <c r="W36" t="s">
+        <v>863</v>
+      </c>
+      <c r="X36" s="12">
+        <v>19</v>
+      </c>
+      <c r="Y36" s="13">
+        <v>7</v>
+      </c>
+      <c r="Z36" s="12">
         <v>8</v>
       </c>
-      <c r="W36" t="s">
-        <v>864</v>
-      </c>
-      <c r="X36" t="s">
-        <v>864</v>
-      </c>
-      <c r="Y36" s="6">
-        <v>6</v>
-      </c>
-      <c r="Z36" s="2">
-        <v>7</v>
-      </c>
-      <c r="AA36" s="2">
-        <v>7</v>
-      </c>
-      <c r="AB36">
+      <c r="AA36" s="12">
+        <v>8</v>
+      </c>
+      <c r="AB36" s="7">
         <v>1</v>
       </c>
       <c r="AC36" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AE36" t="s">
+        <v>858</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>858</v>
+      </c>
+      <c r="AG36" t="s">
         <v>859</v>
       </c>
-      <c r="AF36" t="s">
-        <v>859</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>860</v>
-      </c>
       <c r="AH36" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AI36" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ36" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="AK36" t="s">
         <v>859</v>
       </c>
       <c r="AL36" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AM36" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
@@ -15806,72 +16093,72 @@
         <v>282</v>
       </c>
       <c r="R37" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="S37" s="2">
         <v>4</v>
       </c>
       <c r="T37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AB37">
         <v>0</v>
       </c>
       <c r="AC37" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="AE37" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AF37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B38">
         <v>25</v>
@@ -15922,25 +16209,25 @@
         <v>292</v>
       </c>
       <c r="R38" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S38" s="3">
         <v>11</v>
       </c>
       <c r="T38" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U38" s="3">
         <v>12</v>
       </c>
       <c r="V38" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W38" s="3">
         <v>13</v>
       </c>
       <c r="X38" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y38" s="3">
         <v>12</v>
@@ -15952,48 +16239,48 @@
         <v>10</v>
       </c>
       <c r="AB38" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AC38" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="AE38" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF38" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG38" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH38" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI38" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ38" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK38" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL38" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM38" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B39">
         <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H39" t="s">
         <v>286</v>
@@ -16011,149 +16298,149 @@
         <v>297</v>
       </c>
       <c r="R39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="S39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AB39">
         <v>0</v>
       </c>
       <c r="AC39" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AE39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B40">
         <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="N40" t="s">
         <v>298</v>
       </c>
       <c r="R40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="S40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AB40">
         <v>0</v>
       </c>
       <c r="AC40" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AE40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B41">
         <v>26</v>
@@ -16180,7 +16467,7 @@
         <v>305</v>
       </c>
       <c r="R41" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="S41" s="2">
         <v>11</v>
@@ -16192,60 +16479,60 @@
         <v>7</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W41" s="6">
         <v>6</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AB41">
         <v>1</v>
       </c>
       <c r="AC41" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AE41" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AF41" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AG41" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AH41" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI41" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AJ41" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK41" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL41" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM41" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B42">
         <v>27</v>
@@ -16296,67 +16583,67 @@
         <v>308</v>
       </c>
       <c r="R42" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="S42" s="6">
         <v>5</v>
       </c>
-      <c r="T42" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="U42" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="V42" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="W42" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="X42" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="Y42" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="Z42" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="AA42" s="6" t="s">
-        <v>864</v>
+      <c r="T42" t="s">
+        <v>863</v>
+      </c>
+      <c r="U42" t="s">
+        <v>863</v>
+      </c>
+      <c r="V42" t="s">
+        <v>863</v>
+      </c>
+      <c r="W42" t="s">
+        <v>863</v>
+      </c>
+      <c r="X42" t="s">
+        <v>863</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>863</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>863</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>863</v>
       </c>
       <c r="AB42">
         <v>0</v>
       </c>
       <c r="AC42" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AE42" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AF42" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG42" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH42" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI42" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ42" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK42" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL42" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM42" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.2">
@@ -16412,7 +16699,7 @@
         <v>327</v>
       </c>
       <c r="R43" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="S43" s="6">
         <v>3</v>
@@ -16445,31 +16732,31 @@
         <v>0</v>
       </c>
       <c r="AE43" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AF43" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AG43" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AH43" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AI43" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AJ43" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AK43" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AL43" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AM43" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.2">
@@ -16498,67 +16785,67 @@
         <v>330</v>
       </c>
       <c r="R44" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S44" s="2">
         <v>9</v>
       </c>
       <c r="T44" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U44" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V44" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W44" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X44" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y44" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z44" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA44" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AB44">
         <v>0</v>
       </c>
       <c r="AC44" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="AE44" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AF44" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG44" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH44" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI44" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ44" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK44" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL44" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM44" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.2">
@@ -16611,7 +16898,7 @@
         <v>341</v>
       </c>
       <c r="R45" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="S45" s="3">
         <v>3</v>
@@ -16644,34 +16931,34 @@
         <v>0</v>
       </c>
       <c r="AC45" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="AE45" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF45" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG45" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH45" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI45" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ45" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK45" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL45" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM45" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.2">
@@ -16727,7 +17014,7 @@
         <v>351</v>
       </c>
       <c r="R46" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S46" s="2">
         <v>13</v>
@@ -16739,7 +17026,7 @@
         <v>14</v>
       </c>
       <c r="V46" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W46" s="6">
         <v>13</v>
@@ -16760,34 +17047,34 @@
         <v>1</v>
       </c>
       <c r="AC46" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="AE46" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AF46" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AG46" t="s">
+        <v>858</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>863</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>858</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>858</v>
+      </c>
+      <c r="AK46" t="s">
         <v>859</v>
       </c>
-      <c r="AH46" t="s">
-        <v>864</v>
-      </c>
-      <c r="AI46" t="s">
+      <c r="AL46" t="s">
         <v>859</v>
       </c>
-      <c r="AJ46" t="s">
+      <c r="AM46" t="s">
         <v>859</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>860</v>
-      </c>
-      <c r="AL46" t="s">
-        <v>860</v>
-      </c>
-      <c r="AM46" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.2">
@@ -16843,7 +17130,7 @@
         <v>365</v>
       </c>
       <c r="R47" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="S47" s="6">
         <v>3</v>
@@ -16876,36 +17163,36 @@
         <v>0</v>
       </c>
       <c r="AE47" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AF47" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AG47" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AH47" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AI47" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AJ47" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AK47" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AL47" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AM47" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B48">
         <v>33</v>
@@ -16956,67 +17243,67 @@
         <v>370</v>
       </c>
       <c r="R48" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S48" s="2">
         <v>14</v>
       </c>
       <c r="T48" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U48" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V48" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W48" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X48" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y48" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z48" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA48" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AB48">
         <v>0</v>
       </c>
       <c r="AC48" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AE48" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AF48" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG48" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH48" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI48" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ48" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK48" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL48" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM48" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.2">
@@ -17069,7 +17356,7 @@
         <v>388</v>
       </c>
       <c r="R49" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="S49" s="2">
         <v>10</v>
@@ -17084,7 +17371,7 @@
         <v>12</v>
       </c>
       <c r="W49" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X49" s="6">
         <v>9</v>
@@ -17102,34 +17389,34 @@
         <v>1</v>
       </c>
       <c r="AC49" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AE49" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AF49" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AG49" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AH49" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AI49" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ49" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AK49" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AL49" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AM49" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.2">
@@ -17182,7 +17469,7 @@
         <v>398</v>
       </c>
       <c r="R50" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="S50" s="3">
         <v>11</v>
@@ -17194,7 +17481,7 @@
         <v>9</v>
       </c>
       <c r="V50" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W50" s="3">
         <v>6</v>
@@ -17212,39 +17499,39 @@
         <v>12</v>
       </c>
       <c r="AB50" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AE50" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF50" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG50" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH50" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI50" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ50" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK50" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL50" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM50" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B51">
         <v>37</v>
@@ -17295,7 +17582,7 @@
         <v>407</v>
       </c>
       <c r="R51" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="S51" s="2">
         <v>9</v>
@@ -17324,35 +17611,38 @@
       <c r="AA51" s="7">
         <v>7</v>
       </c>
+      <c r="AB51">
+        <v>1</v>
+      </c>
       <c r="AC51" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AE51" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AF51" t="s">
+        <v>858</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>858</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>858</v>
+      </c>
+      <c r="AI51" t="s">
         <v>859</v>
       </c>
-      <c r="AG51" t="s">
-        <v>859</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>859</v>
-      </c>
-      <c r="AI51" t="s">
-        <v>860</v>
-      </c>
       <c r="AJ51" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AK51" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AL51" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AM51" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.2">
@@ -17408,7 +17698,7 @@
         <v>424</v>
       </c>
       <c r="R52" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="S52" s="6">
         <v>12</v>
@@ -17416,59 +17706,59 @@
       <c r="T52" s="6">
         <v>13</v>
       </c>
-      <c r="U52" s="2">
+      <c r="U52" s="14">
         <v>11</v>
       </c>
-      <c r="V52" s="2">
+      <c r="V52" s="13">
         <v>11</v>
       </c>
       <c r="W52" s="6">
         <v>9</v>
       </c>
-      <c r="X52" t="s">
-        <v>864</v>
-      </c>
-      <c r="Y52" s="2">
+      <c r="X52" s="12">
+        <v>12</v>
+      </c>
+      <c r="Y52" s="13">
         <v>11</v>
       </c>
-      <c r="Z52" s="2">
+      <c r="Z52" s="13">
         <v>11</v>
       </c>
-      <c r="AA52" s="2">
+      <c r="AA52" s="13">
         <v>11</v>
       </c>
       <c r="AB52">
         <v>1</v>
       </c>
       <c r="AC52" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="AE52" t="s">
+        <v>858</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>858</v>
+      </c>
+      <c r="AG52" t="s">
         <v>859</v>
       </c>
-      <c r="AF52" t="s">
+      <c r="AH52" t="s">
         <v>859</v>
       </c>
-      <c r="AG52" t="s">
-        <v>860</v>
-      </c>
-      <c r="AH52" t="s">
-        <v>860</v>
-      </c>
       <c r="AI52" t="s">
+        <v>858</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>858</v>
+      </c>
+      <c r="AK52" t="s">
         <v>859</v>
       </c>
-      <c r="AJ52" t="s">
-        <v>864</v>
-      </c>
-      <c r="AK52" t="s">
-        <v>860</v>
-      </c>
       <c r="AL52" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AM52" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.2">
@@ -17486,64 +17776,67 @@
         <v>426</v>
       </c>
       <c r="R53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="S53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA53" t="s">
-        <v>864</v>
+        <v>863</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
       </c>
       <c r="AC53" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="AE53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.2">
@@ -17596,7 +17889,7 @@
         <v>438</v>
       </c>
       <c r="R54" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="S54" s="3">
         <v>11</v>
@@ -17626,42 +17919,42 @@
         <v>9</v>
       </c>
       <c r="AB54" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AC54" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AE54" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF54" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG54" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH54" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI54" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ54" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK54" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL54" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM54" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B55">
         <v>40</v>
@@ -17712,7 +18005,7 @@
         <v>444</v>
       </c>
       <c r="R55" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="S55" s="3">
         <v>3</v>
@@ -17736,48 +18029,48 @@
         <v>2</v>
       </c>
       <c r="Z55" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA55" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AB55" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AC55" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="AE55" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF55" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG55" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH55" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI55" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ55" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK55" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL55" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM55" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B56">
         <v>41</v>
@@ -17828,7 +18121,7 @@
         <v>456</v>
       </c>
       <c r="R56" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="S56" s="3">
         <v>19</v>
@@ -17857,35 +18150,35 @@
       <c r="AA56" s="3">
         <v>9</v>
       </c>
-      <c r="AB56" t="s">
-        <v>908</v>
+      <c r="AB56">
+        <v>0</v>
       </c>
       <c r="AE56" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF56" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG56" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH56" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI56" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ56" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK56" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL56" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM56" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.2">
@@ -17938,67 +18231,67 @@
         <v>470</v>
       </c>
       <c r="R57" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="S57" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T57" s="2">
         <v>10</v>
       </c>
       <c r="U57" t="s">
-        <v>864</v>
-      </c>
-      <c r="V57" t="s">
-        <v>864</v>
+        <v>863</v>
+      </c>
+      <c r="V57" s="13">
+        <v>16</v>
       </c>
       <c r="W57" s="2">
         <v>7</v>
       </c>
-      <c r="X57" t="s">
-        <v>864</v>
-      </c>
-      <c r="Y57" s="6">
-        <v>71</v>
-      </c>
-      <c r="Z57" s="6">
-        <v>14</v>
-      </c>
-      <c r="AA57" s="6">
-        <v>56</v>
+      <c r="X57" s="12">
+        <v>11</v>
+      </c>
+      <c r="Y57" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z57" s="12">
+        <v>15</v>
+      </c>
+      <c r="AA57" s="12">
+        <v>15</v>
       </c>
       <c r="AB57">
         <v>1</v>
       </c>
       <c r="AC57" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="AE57" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF57" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AG57" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH57" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="AI57" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AJ57" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="AK57" t="s">
         <v>859</v>
       </c>
       <c r="AL57" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AM57" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.2">
@@ -18009,7 +18302,7 @@
         <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D58" t="s">
         <v>476</v>
@@ -18048,25 +18341,25 @@
         <v>480</v>
       </c>
       <c r="R58" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="S58" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T58" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U58" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V58" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W58" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X58" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y58" s="6">
         <v>12</v>
@@ -18081,34 +18374,34 @@
         <v>0</v>
       </c>
       <c r="AC58" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="AE58" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF58" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG58" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH58" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI58" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ58" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK58" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AL58" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AM58" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.2">
@@ -18161,7 +18454,7 @@
         <v>493</v>
       </c>
       <c r="R59" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="S59" s="3">
         <v>4</v>
@@ -18194,34 +18487,34 @@
         <v>0</v>
       </c>
       <c r="AC59" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="AE59" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF59" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG59" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH59" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI59" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ59" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK59" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL59" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM59" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.2">
@@ -18277,7 +18570,7 @@
         <v>501</v>
       </c>
       <c r="R60" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S60" s="6">
         <v>8</v>
@@ -18288,56 +18581,56 @@
       <c r="U60" s="2">
         <v>10</v>
       </c>
-      <c r="V60" t="s">
-        <v>864</v>
+      <c r="V60" s="13">
+        <v>13</v>
       </c>
       <c r="W60" t="s">
-        <v>864</v>
-      </c>
-      <c r="X60" t="s">
-        <v>864</v>
-      </c>
-      <c r="Y60" s="2">
+        <v>863</v>
+      </c>
+      <c r="X60" s="12">
+        <v>12</v>
+      </c>
+      <c r="Y60" s="13">
         <v>13</v>
       </c>
-      <c r="Z60" s="6">
+      <c r="Z60" s="12">
         <v>12</v>
       </c>
-      <c r="AA60" s="6">
+      <c r="AA60" s="12">
         <v>12</v>
       </c>
       <c r="AB60">
         <v>1</v>
       </c>
       <c r="AC60" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="AE60" t="s">
+        <v>858</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>858</v>
+      </c>
+      <c r="AG60" t="s">
         <v>859</v>
       </c>
-      <c r="AF60" t="s">
+      <c r="AH60" t="s">
         <v>859</v>
       </c>
-      <c r="AG60" t="s">
-        <v>860</v>
-      </c>
-      <c r="AH60" t="s">
-        <v>864</v>
-      </c>
       <c r="AI60" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ60" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="AK60" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AL60" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AM60" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.2">
@@ -18390,10 +18683,10 @@
         <v>514</v>
       </c>
       <c r="R61" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="S61" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T61" s="6">
         <v>3</v>
@@ -18423,31 +18716,31 @@
         <v>0</v>
       </c>
       <c r="AE61" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF61" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AG61" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AH61" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AI61" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AJ61" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AK61" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AL61" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AM61" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.2">
@@ -18503,7 +18796,7 @@
         <v>524</v>
       </c>
       <c r="R62" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="S62" s="3">
         <v>11</v>
@@ -18515,7 +18808,7 @@
         <v>7</v>
       </c>
       <c r="V62" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W62" s="3">
         <v>6</v>
@@ -18533,37 +18826,37 @@
         <v>5</v>
       </c>
       <c r="AB62" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AC62" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AE62" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF62" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG62" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH62" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI62" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ62" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK62" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL62" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM62" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.2">
@@ -18616,7 +18909,7 @@
         <v>536</v>
       </c>
       <c r="R63" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="S63" s="6">
         <v>3</v>
@@ -18634,7 +18927,7 @@
         <v>5</v>
       </c>
       <c r="X63" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y63" s="6">
         <v>3</v>
@@ -18645,38 +18938,38 @@
       <c r="AA63" s="6">
         <v>3</v>
       </c>
-      <c r="AB63" t="s">
-        <v>908</v>
+      <c r="AB63">
+        <v>0</v>
       </c>
       <c r="AC63" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AE63" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AF63" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AG63" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AH63" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AI63" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AJ63" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK63" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AL63" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AM63" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.2">
@@ -18732,7 +19025,7 @@
         <v>548</v>
       </c>
       <c r="R64" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="S64" s="3">
         <v>6</v>
@@ -18762,37 +19055,37 @@
         <v>5</v>
       </c>
       <c r="AB64" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AC64" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AE64" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF64" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG64" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH64" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI64" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ64" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK64" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL64" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM64" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.2">
@@ -18827,10 +19120,10 @@
         <v>548</v>
       </c>
       <c r="R65" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="S65" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T65" s="3">
         <v>4</v>
@@ -18857,37 +19150,37 @@
         <v>3</v>
       </c>
       <c r="AB65" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AC65" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AE65" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF65" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG65" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH65" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI65" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ65" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK65" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL65" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM65" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.2">
@@ -18914,61 +19207,61 @@
         <v>104</v>
       </c>
       <c r="S66" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T66" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U66" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V66" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="W66" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X66" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y66" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Z66" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA66" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AB66">
         <v>0</v>
       </c>
       <c r="AE66" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF66" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG66" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH66" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AI66" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ66" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK66" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AL66" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM66" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.2">
@@ -19018,10 +19311,10 @@
         <v>556</v>
       </c>
       <c r="R67" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S67" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T67" s="2">
         <v>10</v>
@@ -19036,7 +19329,7 @@
         <v>10</v>
       </c>
       <c r="X67" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Y67" s="2">
         <v>10</v>
@@ -19051,34 +19344,34 @@
         <v>0</v>
       </c>
       <c r="AC67" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AE67" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF67" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AG67" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AH67" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AI67" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AJ67" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK67" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AL67" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AM67" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.2">
@@ -19119,10 +19412,10 @@
         <v>565</v>
       </c>
       <c r="R68" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="S68" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T68" s="3">
         <v>3</v>
@@ -19152,34 +19445,34 @@
         <v>0</v>
       </c>
       <c r="AC68" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AE68" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF68" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG68" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH68" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI68" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ68" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK68" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL68" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM68" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.2">
@@ -19190,7 +19483,7 @@
         <v>59</v>
       </c>
       <c r="C69" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D69" t="s">
         <v>74</v>
@@ -19208,10 +19501,10 @@
         <v>570</v>
       </c>
       <c r="R69" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="S69" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T69" s="3">
         <v>3</v>
@@ -19241,45 +19534,45 @@
         <v>0</v>
       </c>
       <c r="AC69" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AE69" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF69" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG69" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH69" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI69" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ69" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK69" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL69" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM69" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B70">
         <v>62</v>
       </c>
       <c r="C70" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D70" t="s">
         <v>574</v>
@@ -19297,22 +19590,22 @@
         <v>575</v>
       </c>
       <c r="R70" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="S70" s="6">
         <v>3</v>
       </c>
       <c r="T70" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U70" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V70" s="6">
         <v>3</v>
       </c>
       <c r="W70" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X70" s="6">
         <v>3</v>
@@ -19330,45 +19623,45 @@
         <v>0</v>
       </c>
       <c r="AC70" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AE70" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AF70" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG70" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH70" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AI70" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ70" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AK70" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AL70" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AM70" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B71">
         <v>62</v>
       </c>
       <c r="C71" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D71" t="s">
         <v>574</v>
@@ -19386,22 +19679,22 @@
         <v>575</v>
       </c>
       <c r="R71" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S71" s="6">
         <v>11</v>
       </c>
       <c r="T71" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U71" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V71" s="6">
         <v>8</v>
       </c>
       <c r="W71" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X71" s="2">
         <v>9</v>
@@ -19419,34 +19712,34 @@
         <v>1</v>
       </c>
       <c r="AC71" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AE71" t="s">
+        <v>858</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>863</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>863</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>858</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>863</v>
+      </c>
+      <c r="AJ71" t="s">
         <v>859</v>
       </c>
-      <c r="AF71" t="s">
-        <v>864</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>864</v>
-      </c>
-      <c r="AH71" t="s">
+      <c r="AK71" t="s">
         <v>859</v>
       </c>
-      <c r="AI71" t="s">
-        <v>864</v>
-      </c>
-      <c r="AJ71" t="s">
-        <v>860</v>
-      </c>
-      <c r="AK71" t="s">
-        <v>860</v>
-      </c>
       <c r="AL71" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AM71" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.2">
@@ -19490,16 +19783,16 @@
         <v>580</v>
       </c>
       <c r="R72" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="S72" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T72" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U72" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V72" s="3">
         <v>18</v>
@@ -19519,38 +19812,38 @@
       <c r="AA72" s="3">
         <v>16</v>
       </c>
-      <c r="AB72">
-        <v>1</v>
+      <c r="AB72" t="s">
+        <v>907</v>
       </c>
       <c r="AC72" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AE72" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF72" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AG72" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH72" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI72" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ72" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK72" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL72" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM72" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.2">
@@ -19606,22 +19899,22 @@
         <v>589</v>
       </c>
       <c r="R73" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="S73" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T73" s="3">
         <v>11</v>
       </c>
       <c r="U73" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V73" s="3">
         <v>11</v>
       </c>
       <c r="W73" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X73" s="3">
         <v>11</v>
@@ -19630,43 +19923,43 @@
         <v>11</v>
       </c>
       <c r="Z73" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AA73" s="3">
         <v>12</v>
       </c>
-      <c r="AB73">
-        <v>1</v>
+      <c r="AB73" t="s">
+        <v>907</v>
       </c>
       <c r="AC73" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AE73" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF73" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG73" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH73" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI73" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ73" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK73" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL73" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM73" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.2">
@@ -19722,7 +20015,7 @@
         <v>602</v>
       </c>
       <c r="R74" s="11" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="S74" s="6">
         <v>2</v>
@@ -19755,34 +20048,34 @@
         <v>0</v>
       </c>
       <c r="AC74" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="AE74" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AF74" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AG74" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AH74" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AI74" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AJ74" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AK74" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AL74" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AM74" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.2">
@@ -19838,7 +20131,7 @@
         <v>614</v>
       </c>
       <c r="R75" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="S75" s="3">
         <v>4</v>
@@ -19867,35 +20160,35 @@
       <c r="AA75" s="3">
         <v>9</v>
       </c>
-      <c r="AB75">
-        <v>1</v>
+      <c r="AB75" t="s">
+        <v>907</v>
       </c>
       <c r="AE75" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF75" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG75" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH75" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI75" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ75" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK75" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL75" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM75" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.2">
@@ -19951,7 +20244,7 @@
         <v>626</v>
       </c>
       <c r="R76" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="S76" s="2">
         <v>2</v>
@@ -19984,34 +20277,34 @@
         <v>1</v>
       </c>
       <c r="AC76" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="AE76" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AF76" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AG76" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AH76" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AI76" t="s">
+        <v>858</v>
+      </c>
+      <c r="AJ76" t="s">
         <v>859</v>
       </c>
-      <c r="AJ76" t="s">
-        <v>860</v>
-      </c>
       <c r="AK76" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AL76" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AM76" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.2">
@@ -20067,7 +20360,7 @@
         <v>637</v>
       </c>
       <c r="R77" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="S77" s="6">
         <v>6</v>
@@ -20100,34 +20393,34 @@
         <v>0</v>
       </c>
       <c r="AC77" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AE77" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AF77" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AG77" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AH77" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AI77" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AJ77" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AK77" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AL77" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AM77" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.2">
@@ -20183,7 +20476,7 @@
         <v>653</v>
       </c>
       <c r="R78" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="S78" s="3">
         <v>20</v>
@@ -20198,7 +20491,7 @@
         <v>9</v>
       </c>
       <c r="W78" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X78" s="3">
         <v>19</v>
@@ -20212,38 +20505,38 @@
       <c r="AA78" s="3">
         <v>8</v>
       </c>
-      <c r="AB78">
-        <v>1</v>
+      <c r="AB78" t="s">
+        <v>907</v>
       </c>
       <c r="AC78" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AE78" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF78" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG78" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH78" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI78" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AJ78" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK78" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL78" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AM78" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.2">
@@ -20299,7 +20592,7 @@
         <v>665</v>
       </c>
       <c r="R79" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S79" s="3">
         <v>7</v>
@@ -20322,49 +20615,49 @@
       <c r="Y79" s="3">
         <v>13</v>
       </c>
-      <c r="Z79" s="3" t="s">
-        <v>864</v>
+      <c r="Z79" t="s">
+        <v>863</v>
       </c>
       <c r="AA79" s="3">
         <v>12</v>
       </c>
-      <c r="AB79">
-        <v>1</v>
+      <c r="AB79" t="s">
+        <v>907</v>
       </c>
       <c r="AC79" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AE79" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF79" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AG79" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AH79" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AI79" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AJ79" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AK79" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AL79" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AM79" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B80">
         <v>90</v>
@@ -20397,7 +20690,7 @@
         <v>100</v>
       </c>
       <c r="R80" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S80" s="6">
         <v>11</v>
@@ -20430,34 +20723,34 @@
         <v>1</v>
       </c>
       <c r="AC80" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AE80" t="s">
+        <v>858</v>
+      </c>
+      <c r="AF80" t="s">
         <v>859</v>
       </c>
-      <c r="AF80" t="s">
-        <v>860</v>
-      </c>
       <c r="AG80" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AH80" t="s">
+        <v>858</v>
+      </c>
+      <c r="AI80" t="s">
         <v>859</v>
       </c>
-      <c r="AI80" t="s">
-        <v>860</v>
-      </c>
       <c r="AJ80" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AK80" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AL80" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AM80" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -20475,7 +20768,7 @@
       </c>
       <c r="E81" s="5">
         <f>COUNTIF(E2:E80,  "&gt;0")</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F81" s="5">
         <f>COUNTIF(F2:F80,"E2:E301 - D2:D301 &gt; 0")</f>

--- a/PhasomeIt_data/phasomeit_out.xlsx
+++ b/PhasomeIt_data/phasomeit_out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u5501917/Documents/PhD/PhD/PhasomeIt_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80699266-6A94-E34C-B525-BD139A510F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709F9F04-91B4-7A4C-BD5D-F8E9137B5383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{480DD372-3942-D34A-8BED-516D6EDEA6F5}"/>
+    <workbookView xWindow="13680" yWindow="760" windowWidth="16560" windowHeight="18880" activeTab="3" xr2:uid="{480DD372-3942-D34A-8BED-516D6EDEA6F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Sheet 1" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5771" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5773" uniqueCount="1014">
   <si>
     <t>Name</t>
   </si>
@@ -3080,6 +3079,12 @@
   </si>
   <si>
     <t>Contig breaks in PilC2 make it impossible to resolve the full gene sequence or the repeat tract. Switch in expression between pilc1 and pilc2</t>
+  </si>
+  <si>
+    <t>N222.1.2_start</t>
+  </si>
+  <si>
+    <t>N222.1.2_stop</t>
   </si>
 </sst>
 </file>
@@ -3245,13 +3250,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>195618</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>157143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>276749</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>130628</xdr:rowOff>
@@ -8059,7 +8064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D96465A-A0A5-9846-835F-89D11FC7FBE7}">
   <dimension ref="A1:S305"/>
   <sheetViews>
-    <sheetView topLeftCell="A272" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
@@ -12351,12 +12356,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30A245B-95BF-C943-9F83-1E9E02780E5F}">
-  <dimension ref="A1:AW95"/>
+  <dimension ref="A1:AY95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="88" zoomScaleNormal="112" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="X79" sqref="X79"/>
+      <selection pane="bottomLeft" activeCell="AM13" sqref="AM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12370,7 +12375,7 @@
     <col min="20" max="27" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>705</v>
       </c>
@@ -12489,37 +12494,43 @@
         <v>973</v>
       </c>
       <c r="AN1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AP1" t="s">
         <v>975</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>976</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>977</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>978</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>979</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>980</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>981</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>982</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>983</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>873</v>
       </c>
@@ -12637,8 +12648,14 @@
       <c r="AM2" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AN2">
+        <v>1872368</v>
+      </c>
+      <c r="AO2">
+        <v>1873705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>827</v>
       </c>
@@ -12756,8 +12773,14 @@
       <c r="AM3" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AN3">
+        <v>1867818</v>
+      </c>
+      <c r="AO3">
+        <v>1868321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4">
         <v>1</v>
@@ -12856,7 +12879,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5">
         <v>1</v>
@@ -12955,7 +12978,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6">
         <v>1</v>
@@ -13048,7 +13071,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7">
         <v>1</v>
@@ -13120,7 +13143,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8">
         <v>1</v>
@@ -13192,7 +13215,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9">
         <v>1</v>
@@ -13261,7 +13284,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>825</v>
       </c>
@@ -13376,8 +13399,14 @@
       <c r="AM10" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AN10">
+        <v>1855764</v>
+      </c>
+      <c r="AO10">
+        <v>1855246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>823</v>
       </c>
@@ -13486,8 +13515,14 @@
       <c r="AM11" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AN11">
+        <v>1836846</v>
+      </c>
+      <c r="AO11">
+        <v>1836562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12">
         <v>3</v>
@@ -13556,7 +13591,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>963</v>
       </c>
@@ -13657,7 +13692,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>901</v>
       </c>
@@ -13772,8 +13807,14 @@
       <c r="AM14" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AN14">
+        <v>1840400</v>
+      </c>
+      <c r="AO14">
+        <v>1837221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>741</v>
       </c>
@@ -13856,7 +13897,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>874</v>
       </c>
@@ -13971,8 +14012,14 @@
       <c r="AM16" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN16">
+        <v>1694881</v>
+      </c>
+      <c r="AO16">
+        <v>1693889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>875</v>
       </c>
@@ -14087,8 +14134,14 @@
       <c r="AM17" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN17">
+        <v>1664053</v>
+      </c>
+      <c r="AO17">
+        <v>1665177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>816</v>
       </c>
@@ -14203,8 +14256,14 @@
       <c r="AM18" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN18">
+        <v>1599318</v>
+      </c>
+      <c r="AO18">
+        <v>1598362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>816</v>
       </c>
@@ -14319,8 +14378,14 @@
       <c r="AM19" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN19">
+        <v>1599318</v>
+      </c>
+      <c r="AO19">
+        <v>1598362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>813</v>
       </c>
@@ -14435,8 +14500,14 @@
       <c r="AM20" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN20">
+        <v>1562099</v>
+      </c>
+      <c r="AO20">
+        <v>1560240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>876</v>
       </c>
@@ -14551,8 +14622,14 @@
       <c r="AM21" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN21">
+        <v>1503201</v>
+      </c>
+      <c r="AO21">
+        <v>1503686</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>174</v>
       </c>
@@ -14641,7 +14718,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>809</v>
       </c>
@@ -14756,8 +14833,14 @@
       <c r="AM23" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN23">
+        <v>1455504</v>
+      </c>
+      <c r="AO23">
+        <v>1453858</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>188</v>
       </c>
@@ -14855,7 +14938,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>191</v>
       </c>
@@ -14938,7 +15021,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>190</v>
       </c>
@@ -15033,7 +15116,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>189</v>
       </c>
@@ -15119,7 +15202,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>877</v>
       </c>
@@ -15234,8 +15317,14 @@
       <c r="AM28" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN28">
+        <v>224113</v>
+      </c>
+      <c r="AO28">
+        <v>223754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>803</v>
       </c>
@@ -15350,8 +15439,14 @@
       <c r="AM29" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN29">
+        <v>289712</v>
+      </c>
+      <c r="AO29">
+        <v>290612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>878</v>
       </c>
@@ -15448,8 +15543,14 @@
       <c r="AM30" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN30">
+        <v>393693</v>
+      </c>
+      <c r="AO30">
+        <v>395366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>879</v>
       </c>
@@ -15564,8 +15665,14 @@
       <c r="AM31" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN31">
+        <v>485800</v>
+      </c>
+      <c r="AO31">
+        <v>483509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>799</v>
       </c>
@@ -15671,8 +15778,14 @@
       <c r="AM32" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN32">
+        <v>623986</v>
+      </c>
+      <c r="AO32">
+        <v>623780</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>799</v>
       </c>
@@ -15751,8 +15864,14 @@
       <c r="AM33" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN33">
+        <v>623986</v>
+      </c>
+      <c r="AO33">
+        <v>623780</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>797</v>
       </c>
@@ -15861,8 +15980,14 @@
       <c r="AM34" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN34">
+        <v>654349</v>
+      </c>
+      <c r="AO34">
+        <v>653531</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>956</v>
       </c>
@@ -15951,7 +16076,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>794</v>
       </c>
@@ -16066,8 +16191,14 @@
       <c r="AM36" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN36">
+        <v>975236</v>
+      </c>
+      <c r="AO36">
+        <v>975791</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>282</v>
       </c>
@@ -16156,7 +16287,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>881</v>
       </c>
@@ -16271,8 +16402,14 @@
       <c r="AM38" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN38">
+        <v>1029612</v>
+      </c>
+      <c r="AO38">
+        <v>1028452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>880</v>
       </c>
@@ -16360,8 +16497,14 @@
       <c r="AM39" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN39">
+        <v>2003519</v>
+      </c>
+      <c r="AO39">
+        <v>2002530</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>880</v>
       </c>
@@ -16437,8 +16580,14 @@
       <c r="AM40" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN40">
+        <v>2003519</v>
+      </c>
+      <c r="AO40">
+        <v>2002530</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>952</v>
       </c>
@@ -16530,7 +16679,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>950</v>
       </c>
@@ -16645,8 +16794,14 @@
       <c r="AM42" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN42">
+        <v>1139948</v>
+      </c>
+      <c r="AO42">
+        <v>1138005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>788</v>
       </c>
@@ -16758,8 +16913,14 @@
       <c r="AM43" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN43">
+        <v>1212676</v>
+      </c>
+      <c r="AO43">
+        <v>1215285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>328</v>
       </c>
@@ -16848,7 +17009,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>785</v>
       </c>
@@ -16960,8 +17121,14 @@
       <c r="AM45" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN45">
+        <v>107533</v>
+      </c>
+      <c r="AO45">
+        <v>106701</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>783</v>
       </c>
@@ -17076,8 +17243,14 @@
       <c r="AM46" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN46">
+        <v>70171</v>
+      </c>
+      <c r="AO46">
+        <v>72039</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>781</v>
       </c>
@@ -17189,8 +17362,14 @@
       <c r="AM47" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN47">
+        <v>39736</v>
+      </c>
+      <c r="AO47">
+        <v>41019</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>882</v>
       </c>
@@ -17305,8 +17484,14 @@
       <c r="AM48" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN48">
+        <v>2140665</v>
+      </c>
+      <c r="AO48">
+        <v>2141711</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>778</v>
       </c>
@@ -17419,7 +17604,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>776</v>
       </c>
@@ -17528,8 +17713,14 @@
       <c r="AM50" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN50">
+        <v>2070341</v>
+      </c>
+      <c r="AO50">
+        <v>2068176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>883</v>
       </c>
@@ -17644,8 +17835,14 @@
       <c r="AM51" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN51">
+        <v>2056166</v>
+      </c>
+      <c r="AO51">
+        <v>2053053</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>772</v>
       </c>
@@ -17760,8 +17957,14 @@
       <c r="AM52" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN52">
+        <v>2011036</v>
+      </c>
+      <c r="AO52">
+        <v>2010032</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53">
         <v>38</v>
@@ -17839,7 +18042,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>770</v>
       </c>
@@ -17951,8 +18154,14 @@
       <c r="AM54" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN54">
+        <v>2006234</v>
+      </c>
+      <c r="AO54">
+        <v>2005437</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>884</v>
       </c>
@@ -18067,8 +18276,14 @@
       <c r="AM55" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN55">
+        <v>1997654</v>
+      </c>
+      <c r="AO55">
+        <v>1996779</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>885</v>
       </c>
@@ -18180,8 +18395,14 @@
       <c r="AM56" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN56">
+        <v>1976062</v>
+      </c>
+      <c r="AO56">
+        <v>1975127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>766</v>
       </c>
@@ -18293,8 +18514,14 @@
       <c r="AM57" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN57">
+        <v>102353</v>
+      </c>
+      <c r="AO57">
+        <v>101173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>764</v>
       </c>
@@ -18404,7 +18631,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>485</v>
       </c>
@@ -18517,7 +18744,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>761</v>
       </c>
@@ -18632,8 +18859,14 @@
       <c r="AM60" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN60">
+        <v>803473</v>
+      </c>
+      <c r="AO60">
+        <v>804489</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>759</v>
       </c>
@@ -18742,8 +18975,14 @@
       <c r="AM61" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN61">
+        <v>960475</v>
+      </c>
+      <c r="AO61">
+        <v>958934</v>
+      </c>
+    </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>757</v>
       </c>
@@ -18858,8 +19097,14 @@
       <c r="AM62" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN62">
+        <v>1118857</v>
+      </c>
+      <c r="AO62">
+        <v>1120575</v>
+      </c>
+    </row>
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>755</v>
       </c>
@@ -18971,8 +19216,14 @@
       <c r="AM63" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN63">
+        <v>1163331</v>
+      </c>
+      <c r="AO63">
+        <v>1161085</v>
+      </c>
+    </row>
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>752</v>
       </c>
@@ -19087,8 +19338,14 @@
       <c r="AM64" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN64">
+        <v>1492696</v>
+      </c>
+      <c r="AO64">
+        <v>1491968</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>752</v>
       </c>
@@ -19182,8 +19439,14 @@
       <c r="AM65" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN65">
+        <v>1492696</v>
+      </c>
+      <c r="AO65">
+        <v>1491968</v>
+      </c>
+    </row>
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66">
         <v>51</v>
@@ -19264,7 +19527,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>750</v>
       </c>
@@ -19373,8 +19636,14 @@
       <c r="AM67" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN67">
+        <v>2097740</v>
+      </c>
+      <c r="AO67">
+        <v>2096661</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>747</v>
       </c>
@@ -19474,8 +19743,14 @@
       <c r="AM68" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN68">
+        <v>1861502</v>
+      </c>
+      <c r="AO68">
+        <v>1861831</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>759</v>
       </c>
@@ -19563,8 +19838,14 @@
       <c r="AM69" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN69">
+        <v>960475</v>
+      </c>
+      <c r="AO69">
+        <v>958934</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>901</v>
       </c>
@@ -19652,8 +19933,14 @@
       <c r="AM70" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN70">
+        <v>1840400</v>
+      </c>
+      <c r="AO70">
+        <v>1837221</v>
+      </c>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>901</v>
       </c>
@@ -19741,8 +20028,14 @@
       <c r="AM71" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN71">
+        <v>1840400</v>
+      </c>
+      <c r="AO71">
+        <v>1837221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>739</v>
       </c>
@@ -19845,8 +20138,14 @@
       <c r="AM72" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN72">
+        <v>1420853</v>
+      </c>
+      <c r="AO72">
+        <v>1419969</v>
+      </c>
+    </row>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>737</v>
       </c>
@@ -19961,8 +20260,14 @@
       <c r="AM73" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN73">
+        <v>2073671</v>
+      </c>
+      <c r="AO73">
+        <v>2072325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>734</v>
       </c>
@@ -20077,8 +20382,14 @@
       <c r="AM74" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN74">
+        <v>1453733</v>
+      </c>
+      <c r="AO74">
+        <v>1452375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>732</v>
       </c>
@@ -20190,8 +20501,14 @@
       <c r="AM75" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN75">
+        <v>52203</v>
+      </c>
+      <c r="AO75">
+        <v>48988</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>730</v>
       </c>
@@ -20306,8 +20623,14 @@
       <c r="AM76" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN76">
+        <v>1292015</v>
+      </c>
+      <c r="AO76">
+        <v>1291327</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>728</v>
       </c>
@@ -20422,8 +20745,14 @@
       <c r="AM77" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN77">
+        <v>488885</v>
+      </c>
+      <c r="AO77">
+        <v>489601</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
         <v>724</v>
       </c>
@@ -20538,8 +20867,14 @@
       <c r="AM78" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN78">
+        <v>972454</v>
+      </c>
+      <c r="AO78">
+        <v>973404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
         <v>722</v>
       </c>
@@ -20654,8 +20989,14 @@
       <c r="AM79" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AN79">
+        <v>802559</v>
+      </c>
+      <c r="AO79">
+        <v>803152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>899</v>
       </c>
